--- a/project/excel/plasmo_tar_amp_schema.xlsx
+++ b/project/excel/plasmo_tar_amp_schema.xlsx
@@ -10,6 +10,7 @@
     <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Project" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ProjectCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TargetInfo" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,4 +531,35 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>target_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>gene_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/project/excel/plasmo_tar_amp_schema.xlsx
+++ b/project/excel/plasmo_tar_amp_schema.xlsx
@@ -8,9 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Project" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ProjectCollection" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TargetInfo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TargetInfo" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,93 +450,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>vital_status</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>entries</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/project/excel/plasmo_tar_amp_schema.xlsx
+++ b/project/excel/plasmo_tar_amp_schema.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="TargetInfo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TargetInfo" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,42 +413,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/project/excel/plasmo_tar_amp_schema.xlsx
+++ b/project/excel/plasmo_tar_amp_schema.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="TargetInfo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GenomeInfo" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +433,57 @@
           <t>gene_id</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>target_genome</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>taxon_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>gff_url</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/excel/plasmo_tar_amp_schema.xlsx
+++ b/project/excel/plasmo_tar_amp_schema.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="TargetInfo" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="GenomeInfo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GenomicLocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PrimerInfo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Primers" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6 +439,21 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>target_genome</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>insert_location</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>forward_primers</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>reverse_primers</t>
         </is>
       </c>
     </row>
@@ -488,4 +506,102 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>chrom</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>strand</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>seq</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>entries</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/project/excel/plasmo_tar_amp_schema.xlsx
+++ b/project/excel/plasmo_tar_amp_schema.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="TargetInfo" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GenomeInfo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GenomicLocation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="PrimerInfo" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Primers" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="PanelInfo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GenomeInfo" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GenomicLocation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="PrimerInfo" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Primers" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,6 +469,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>panel_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>targets</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -508,7 +540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -549,7 +581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -580,7 +612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/project/excel/plasmo_tar_amp_schema.xlsx
+++ b/project/excel/plasmo_tar_amp_schema.xlsx
@@ -9,10 +9,14 @@
   <sheets>
     <sheet name="TargetInfo" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="PanelInfo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GenomeInfo" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GenomicLocation" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="PrimerInfo" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Primers" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="RepresentativeHaplotypeSequence" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="HaplotypeInfo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="HaplotypesDetected" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GenomeInfo" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="GenomicLocation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="PrimerInfo" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Primers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="HaplotypesForTarget" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,6 +467,32 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>target_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -500,6 +530,104 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>haplotype_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>seq</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>haplotype_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>target_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sequencing_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>bioinformatics_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -540,7 +668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -581,7 +709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -612,7 +740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/project/excel/plasmo_tar_amp_schema.xlsx
+++ b/project/excel/plasmo_tar_amp_schema.xlsx
@@ -473,6 +473,284 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>target_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>haplotype_ids</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>panel_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>targets</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>haplotype_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>seq</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>haplotype_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>target_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sequencing_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>bioinformatics_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>taxon_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>gff_url</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>chrom</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>strand</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>seq</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -484,279 +762,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>target_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>panel_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>targets</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>haplotype_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>seq</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>haplotype_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>target_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>sequencing_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>bioinformatics_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>taxon_id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>gff_url</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>chrom</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>strand</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>seq</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>entries</t>
         </is>
       </c>

--- a/project/excel/plasmo_tar_amp_schema.xlsx
+++ b/project/excel/plasmo_tar_amp_schema.xlsx
@@ -473,6 +473,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>target_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>haplotype_ids</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>read_counts</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>umi_counts</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -484,21 +525,93 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>panel_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>targets</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>haplotype_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>seq</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>haplotype_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>target_id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>haplotype_ids</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>alt_annotations</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -515,225 +628,127 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>panel_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>targets</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>haplotype_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
+          <t>sequencing_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>bioinformatics_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>taxon_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>gff_url</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>chrom</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>strand</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>seq</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>haplotype_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>target_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>sequencing_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>bioinformatics_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>taxon_id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>gff_url</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>chrom</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>strand</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>seq</t>
-        </is>
-      </c>
       <c r="B1" t="inlineStr">
         <is>
           <t>location</t>

--- a/project/excel/plasmo_tar_amp_schema.xlsx
+++ b/project/excel/plasmo_tar_amp_schema.xlsx
@@ -16,7 +16,8 @@
     <sheet name="GenomicLocation" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="PrimerInfo" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Primers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="HaplotypesForTarget" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="HaplotypesForSample" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="HaplotypesForTarget" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,6 +474,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>target_results</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -617,6 +649,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sequencing_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>bioinformatics_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>samples</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>taxon_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>gff_url</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>chrom</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>strand</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -628,124 +783,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>sequencing_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>bioinformatics_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>taxon_id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>gff_url</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>chrom</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>strand</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>seq</t>
         </is>
       </c>

--- a/project/excel/plasmo_tar_amp_schema.xlsx
+++ b/project/excel/plasmo_tar_amp_schema.xlsx
@@ -18,6 +18,8 @@
     <sheet name="Primers" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="HaplotypesForSample" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="HaplotypesForTarget" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="BioMethod" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TarAmpBioinformaticsInfo" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,6 +542,83 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>program</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>additional_argument</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>demultiplexing_method</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>denoising_method</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>population_clustering_method</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>additional_methods</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/project/excel/plasmo_tar_amp_schema.xlsx
+++ b/project/excel/plasmo_tar_amp_schema.xlsx
@@ -20,6 +20,7 @@
     <sheet name="HaplotypesForTarget" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="BioMethod" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="TarAmpBioinformaticsInfo" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="SequencingInfo" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -619,6 +620,77 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>seq_instrument</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>seq_date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nucl_acid_ext</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>nucl_acid_amp</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nucl_acid_date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>pcr_cond</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>lib_screen</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>lib_layout</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>lib_kit</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>seq_center</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/project/excel/plasmo_tar_amp_schema.xlsx
+++ b/project/excel/plasmo_tar_amp_schema.xlsx
@@ -21,6 +21,7 @@
     <sheet name="BioMethod" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="TarAmpBioinformaticsInfo" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="SequencingInfo" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="SpecimenInfo" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -691,6 +692,92 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sample_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>samp_taxon_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>host_taxon_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>alternate_identifiers</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>parasite_density</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>collection_date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>lat_lon</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>collector</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>samp_store_loc</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>samp_collect_device</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>project_name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>accession</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>sample_comments</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/project/excel/plasmo_tar_amp_schema.xlsx
+++ b/project/excel/plasmo_tar_amp_schema.xlsx
@@ -10,7 +10,7 @@
     <sheet name="TargetInfo" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="PanelInfo" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="RepresentativeHaplotypeSequence" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="HaplotypeInfo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RepresentativeHaplotypeSequences" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="HaplotypesDetected" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="GenomeInfo" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="GenomicLocation" sheetId="7" state="visible" r:id="rId7"/>
@@ -22,6 +22,7 @@
     <sheet name="TarAmpBioinformaticsInfo" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="SequencingInfo" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="SpecimenInfo" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="PlasmoTarAmpResults" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -586,6 +587,296 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tar_amp_bioinformatics_info_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>demultiplexing_method</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>denoising_method</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>population_clustering_method</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>additional_methods</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sequencing_info_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>seq_instrument</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>seq_date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>nucl_acid_ext</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nucl_acid_amp</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>nucl_acid_date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>pcr_cond</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>lib_screen</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>lib_layout</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>lib_kit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>seq_center</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sample_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>samp_taxon_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>host_taxon_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>alternate_identifiers</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>parasite_density</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>collection_date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>lat_lon</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>collector</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>samp_store_loc</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>samp_collect_device</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>project_name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>accession</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>sample_comments</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>specimen_infos</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sequencing_info</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>bioinformatics_info</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>panel_info</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>representative_haplotype_sequences</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>haplotypes_detected</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>panel_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>targets</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -597,188 +888,185 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>demultiplexing_method</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>denoising_method</t>
+          <t>haplotype_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>seq</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>population_clustering_method</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>additional_methods</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>seq_instrument</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>seq_date</t>
+          <t>alt_annotations</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>target_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>seqs</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sequencing_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>bioinformatics_id</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>nucl_acid_ext</t>
+          <t>samples</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>taxon_id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>nucl_acid_amp</t>
+          <t>url</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>nucl_acid_date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>pcr_cond</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>lib_screen</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>lib_layout</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>lib_kit</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>seq_center</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>sample_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>samp_taxon_id</t>
+          <t>gff_url</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>chrom</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>start</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>host_taxon_id</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>alternate_identifiers</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>parasite_density</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>collection_date</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>lat_lon</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>collector</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>samp_store_loc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>samp_collect_device</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>project_name</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>accession</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>sample_comments</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>strand</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -795,235 +1083,9 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>panel_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>targets</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>haplotype_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
           <t>seq</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>haplotype_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>target_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>alt_annotations</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>sequencing_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>bioinformatics_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>samples</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>taxon_id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>gff_url</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>chrom</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>strand</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>seq</t>
-        </is>
-      </c>
       <c r="B1" t="inlineStr">
         <is>
           <t>location</t>
